--- a/risultato/FASCIA B - GIALLOARANCIO-ARANCIO POOL-2.xlsx
+++ b/risultato/FASCIA B - GIALLOARANCIO-ARANCIO POOL-2.xlsx
@@ -601,7 +601,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>COGO</t>
+          <t>BARGELLESI</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>LORENZO</t>
+          <t>FABIOLA</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>DI BATTISTA</t>
+          <t>COGO</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>RAFFAELE</t>
+          <t>LORENZO</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>BARGELLESI</t>
+          <t>DI BATTISTA</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>FABIOLA</t>
+          <t>RAFFAELE</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
